--- a/数据整理/stocks/港股/01873-维亚生物.xlsx
+++ b/数据整理/stocks/港股/01873-维亚生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>009190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>景顺长城核心优选一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>62.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001824</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时沪港深成长企业混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009190</t>
+          <t>001824</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城核心优选一年持有期混合</t>
+          <t>博时沪港深成长企业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>81.17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01873-维亚生物.xlsx
+++ b/数据整理/stocks/港股/01873-维亚生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01873-维亚生物.xlsx
+++ b/数据整理/stocks/港股/01873-维亚生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01873-维亚生物.xlsx
+++ b/数据整理/stocks/港股/01873-维亚生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01873-维亚生物.xlsx
+++ b/数据整理/stocks/港股/01873-维亚生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.42</v>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.54</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1612,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.72</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01873-维亚生物.xlsx
+++ b/数据整理/stocks/港股/01873-维亚生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
@@ -1596,14 +1729,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.54</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5">
@@ -1612,14 +1745,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="6">
@@ -1628,13 +1761,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.72</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01873-维亚生物.xlsx
+++ b/数据整理/stocks/港股/01873-维亚生物.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2294</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4479</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D5" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001824</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时沪港深成长企业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>009190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>景顺长城核心优选一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>18.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1013</t>
+          <t>0.8434</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -753,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -857,26 +781,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.68</t>
+          <t>18.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>91.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1510</t>
+          <t>1.0003</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5633</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -923,226 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008177</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信高股息主题股票</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3539</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1773</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011503</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信智能生活混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1139</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1030</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010783</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.03</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1425,26 +1159,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>28.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.18</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0003</t>
+          <t>2.1510</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1453,36 +1187,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.5633</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1491,36 +1225,226 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>010784</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1585,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009190</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城核心优选一年持有期混合</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8434</t>
+          <t>0.1013</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1623,36 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008107</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商医药医疗行业股票</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1666,128 +1590,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.72</v>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>